--- a/CashFlow/WAT_cashflow.xlsx
+++ b/CashFlow/WAT_cashflow.xlsx
@@ -74,8 +74,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1319000000.0</v>
+        <v>18940000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1336000000.0</v>
+        <v>43980000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>987227000.0</v>
+        <v>3257000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>625465000.0</v>
+        <v>-16815000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>237027000.0</v>
+        <v>-31854000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-61543000.0</v>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>140598000.0</v>
+        <v>243000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>56998000.0</v>
+        <v>220000000.0</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
